--- a/src/test/resources/DataTest/Product.xlsx
+++ b/src/test/resources/DataTest/Product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D1964-B326-431E-AFE9-4E4FCCE8109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08733695-1946-4CB5-98AA-DDC59ACAC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>HP</t>
   </si>
   <si>
-    <t>Computering</t>
+    <t>Computers</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
